--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1544759.196155723</v>
+        <v>1540312.773307123</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30208138.79954548</v>
+        <v>30208138.79954546</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7134934.855938643</v>
+        <v>7134934.855938639</v>
       </c>
     </row>
     <row r="9">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.06632804309218</v>
+        <v>57.0663280430922</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>177.1254089882005</v>
       </c>
       <c r="U11" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V11" t="n">
-        <v>169.2993364888556</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.33690481053839</v>
+        <v>60.3369048105384</v>
       </c>
       <c r="T12" t="n">
         <v>136.0833327936195</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,7 +1536,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,10 +1545,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H13" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>71.38780296833761</v>
+        <v>57.35544734198143</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V13" t="n">
-        <v>160.1819708006203</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>344.5007870754422</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H14" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>242.1015236775858</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.80901964619589</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6838381111991</v>
+        <v>14.30514050269177</v>
       </c>
       <c r="H16" t="n">
         <v>134.26258275451</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5.626053133425557</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T16" t="n">
         <v>237.0153716433569</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>257.4828404904022</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H17" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>304.4199351044065</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2019,10 +2019,10 @@
         <v>163.6838381111991</v>
       </c>
       <c r="H19" t="n">
-        <v>15.5502008370787</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I19" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>5.626053133425557</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>157.2478332714138</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.06632804309218</v>
+        <v>26.42234931587621</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>15.09905079568727</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S22" t="n">
-        <v>152.5650864830671</v>
+        <v>62.50326220432312</v>
       </c>
       <c r="T22" t="n">
         <v>237.0153716433569</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>156.3460866819053</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>258.8128685536634</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0316060796102397</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>68.40196920773717</v>
       </c>
       <c r="H25" t="n">
-        <v>88.65056454981736</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>316.9159511330108</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V26" t="n">
-        <v>334.9944318565576</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.08133220444122</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.9118604723884</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>237.0153716433569</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>55.26339549411901</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>86.75802197759518</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T31" t="n">
         <v>237.0153716433569</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.82617783230376</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>98.87719264539081</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H32" t="n">
-        <v>274.1005558094662</v>
+        <v>57.95663407339553</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>57.06632804309218</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U32" t="n">
-        <v>122.3622418748517</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.6838381111991</v>
@@ -3207,7 +3207,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.61740729708102</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1804552590262483</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T34" t="n">
         <v>237.0153716433569</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3274,13 +3274,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>385.005901921399</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>121.861123497004</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>62.50326220432377</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3329370021073</v>
+        <v>262.8168944287154</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105.6858935058494</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.06632804309217</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6089649852995</v>
+        <v>161.9035969696673</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,16 +3672,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9948029195134</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>152.5650864830671</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3329370021073</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>200.1275986646804</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>18.63034055998962</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06632804309218</v>
+        <v>57.06632804309217</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>168.9747528229997</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3918,7 +3918,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.626053133425543</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T43" t="n">
-        <v>237.0153716433569</v>
+        <v>176.5956210053254</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.93243720215789</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.61956546275753</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>196.7144516360371</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>57.06632804309217</v>
       </c>
       <c r="T44" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4137,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.5650864830671</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0153716433569</v>
+        <v>79.29103092440252</v>
       </c>
       <c r="U46" t="n">
-        <v>181.8590747964306</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>896.7109775631113</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="C11" t="n">
-        <v>469.8102475764114</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="D11" t="n">
-        <v>469.8102475764114</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="E11" t="n">
-        <v>43.83330772426898</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="G11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H11" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I11" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643878</v>
       </c>
       <c r="J11" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037499</v>
       </c>
       <c r="K11" t="n">
-        <v>448.7747784804921</v>
+        <v>448.7747784804926</v>
       </c>
       <c r="L11" t="n">
-        <v>727.9824581050657</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M11" t="n">
         <v>1043.801082832444</v>
@@ -5056,7 +5056,7 @@
         <v>1365.479726947677</v>
       </c>
       <c r="O11" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P11" t="n">
         <v>1918.85421215123</v>
@@ -5068,25 +5068,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S11" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.022630614366</v>
+        <v>1955.10807608083</v>
       </c>
       <c r="U11" t="n">
-        <v>1875.831756891841</v>
+        <v>1696.917202358305</v>
       </c>
       <c r="V11" t="n">
-        <v>1704.822326095017</v>
+        <v>1696.917202358305</v>
       </c>
       <c r="W11" t="n">
-        <v>1308.430976395364</v>
+        <v>1300.525852658652</v>
       </c>
       <c r="X11" t="n">
-        <v>896.7109775631113</v>
+        <v>888.8058538263988</v>
       </c>
       <c r="Y11" t="n">
-        <v>896.7109775631113</v>
+        <v>888.8058538263988</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D12" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E12" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F12" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G12" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H12" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I12" t="n">
-        <v>88.30073447494337</v>
+        <v>88.30073447494334</v>
       </c>
       <c r="J12" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579407</v>
       </c>
       <c r="K12" t="n">
-        <v>320.9381841013579</v>
+        <v>416.4967406439432</v>
       </c>
       <c r="L12" t="n">
-        <v>532.1149872941037</v>
+        <v>627.673543836689</v>
       </c>
       <c r="M12" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743009</v>
       </c>
       <c r="N12" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O12" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P12" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R12" t="n">
         <v>1815.956238873899</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1090.257496350811</v>
+        <v>774.256423452285</v>
       </c>
       <c r="C13" t="n">
-        <v>918.2849332297275</v>
+        <v>602.283860331201</v>
       </c>
       <c r="D13" t="n">
-        <v>754.9681603564982</v>
+        <v>438.9670874579717</v>
       </c>
       <c r="E13" t="n">
-        <v>588.7599545093517</v>
+        <v>438.9670874579717</v>
       </c>
       <c r="F13" t="n">
-        <v>416.8981802839121</v>
+        <v>267.1053132325321</v>
       </c>
       <c r="G13" t="n">
-        <v>251.5609700705797</v>
+        <v>101.7681030191997</v>
       </c>
       <c r="H13" t="n">
-        <v>115.9421996114787</v>
+        <v>101.7681030191997</v>
       </c>
       <c r="I13" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J13" t="n">
-        <v>87.13587819270245</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K13" t="n">
-        <v>418.3963088502694</v>
+        <v>496.3180254984902</v>
       </c>
       <c r="L13" t="n">
-        <v>907.1075935917629</v>
+        <v>608.6404166488187</v>
       </c>
       <c r="M13" t="n">
-        <v>1433.10257741746</v>
+        <v>727.598100345307</v>
       </c>
       <c r="N13" t="n">
-        <v>1948.541484080739</v>
+        <v>1106.709457826328</v>
       </c>
       <c r="O13" t="n">
-        <v>2053.684035899826</v>
+        <v>1589.554333948618</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230912</v>
       </c>
       <c r="Q13" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R13" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S13" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T13" t="n">
-        <v>2185.982504260494</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U13" t="n">
-        <v>2185.982504260494</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V13" t="n">
-        <v>2024.182533754817</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="W13" t="n">
-        <v>1749.33012992733</v>
+        <v>1243.163088316738</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.766233373135</v>
+        <v>1000.599191762543</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.423465062877</v>
+        <v>774.256423452285</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1922.072887082163</v>
+        <v>869.4145449365332</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.072887082163</v>
+        <v>869.4145449365332</v>
       </c>
       <c r="D14" t="n">
-        <v>1574.092294076666</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="E14" t="n">
-        <v>1148.115354224523</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F14" t="n">
-        <v>722.9911724139236</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="H14" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I14" t="n">
         <v>87.10761271643833</v>
       </c>
       <c r="J14" t="n">
-        <v>228.5477172037492</v>
+        <v>228.5477172037494</v>
       </c>
       <c r="K14" t="n">
-        <v>448.7747784804921</v>
+        <v>448.7747784804923</v>
       </c>
       <c r="L14" t="n">
-        <v>727.9824581050657</v>
+        <v>727.9824581050659</v>
       </c>
       <c r="M14" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832443</v>
       </c>
       <c r="N14" t="n">
         <v>1365.479726947677</v>
       </c>
       <c r="O14" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900564</v>
       </c>
       <c r="P14" t="n">
-        <v>1918.854212151231</v>
+        <v>1918.85421215123</v>
       </c>
       <c r="Q14" t="n">
-        <v>2100.109526681866</v>
+        <v>2100.109526681865</v>
       </c>
       <c r="R14" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S14" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614365</v>
       </c>
       <c r="T14" t="n">
-        <v>1922.072887082163</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="U14" t="n">
-        <v>1922.072887082163</v>
+        <v>1922.072887082162</v>
       </c>
       <c r="V14" t="n">
-        <v>1922.072887082163</v>
+        <v>1677.525893468439</v>
       </c>
       <c r="W14" t="n">
-        <v>1922.072887082163</v>
+        <v>1281.134543768786</v>
       </c>
       <c r="X14" t="n">
-        <v>1922.072887082163</v>
+        <v>869.4145449365332</v>
       </c>
       <c r="Y14" t="n">
-        <v>1922.072887082163</v>
+        <v>869.4145449365332</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>481.7582752420359</v>
       </c>
       <c r="D15" t="n">
-        <v>377.918316757321</v>
+        <v>377.9183167573209</v>
       </c>
       <c r="E15" t="n">
-        <v>273.2163830302582</v>
+        <v>273.2163830302581</v>
       </c>
       <c r="F15" t="n">
         <v>179.5705527131623</v>
       </c>
       <c r="G15" t="n">
-        <v>86.6138662670264</v>
+        <v>86.61386626702638</v>
       </c>
       <c r="H15" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="I15" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494335</v>
       </c>
       <c r="J15" t="n">
-        <v>370.497648442846</v>
+        <v>265.0421481579401</v>
       </c>
       <c r="K15" t="n">
-        <v>521.9522409288486</v>
+        <v>416.4967406439427</v>
       </c>
       <c r="L15" t="n">
-        <v>733.1290441215943</v>
+        <v>627.6735438366885</v>
       </c>
       <c r="M15" t="n">
-        <v>982.7079039592064</v>
+        <v>877.2524036743006</v>
       </c>
       <c r="N15" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O15" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P15" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q15" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R15" t="n">
         <v>1815.956238873899</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.148604463602</v>
+        <v>767.3973598878009</v>
       </c>
       <c r="C16" t="n">
-        <v>846.1760413425178</v>
+        <v>767.3973598878009</v>
       </c>
       <c r="D16" t="n">
-        <v>682.8592684692885</v>
+        <v>604.0805870145716</v>
       </c>
       <c r="E16" t="n">
-        <v>516.651062622142</v>
+        <v>437.8723811674251</v>
       </c>
       <c r="F16" t="n">
-        <v>344.7892883967024</v>
+        <v>266.0106069419855</v>
       </c>
       <c r="G16" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H16" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I16" t="n">
-        <v>43.83330772426899</v>
+        <v>43.83330772426897</v>
       </c>
       <c r="J16" t="n">
-        <v>87.13587819270245</v>
+        <v>87.13587819270244</v>
       </c>
       <c r="K16" t="n">
-        <v>418.3963088502694</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L16" t="n">
-        <v>907.1075935917629</v>
+        <v>659.8249844777409</v>
       </c>
       <c r="M16" t="n">
-        <v>1439.600757751073</v>
+        <v>1055.400253114256</v>
       </c>
       <c r="N16" t="n">
-        <v>1557.006741572472</v>
+        <v>1570.839159777535</v>
       </c>
       <c r="O16" t="n">
-        <v>1662.149293391559</v>
+        <v>2053.684035899825</v>
       </c>
       <c r="P16" t="n">
-        <v>2061.775544673852</v>
+        <v>2140.554082608811</v>
       </c>
       <c r="Q16" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R16" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S16" t="n">
-        <v>2185.982504260494</v>
+        <v>2037.559238250754</v>
       </c>
       <c r="T16" t="n">
-        <v>1946.573037954073</v>
+        <v>1798.149771944333</v>
       </c>
       <c r="U16" t="n">
-        <v>1666.438758153965</v>
+        <v>1518.015492144225</v>
       </c>
       <c r="V16" t="n">
-        <v>1384.727290761994</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="W16" t="n">
-        <v>1109.874886934507</v>
+        <v>1236.304024752254</v>
       </c>
       <c r="X16" t="n">
-        <v>1109.874886934507</v>
+        <v>993.7401281980589</v>
       </c>
       <c r="Y16" t="n">
-        <v>1109.874886934507</v>
+        <v>767.3973598878009</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1834.175971339698</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="C17" t="n">
-        <v>1834.175971339698</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="D17" t="n">
-        <v>1574.092294076666</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="E17" t="n">
-        <v>1148.115354224523</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="F17" t="n">
-        <v>722.9911724139236</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G17" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H17" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I17" t="n">
         <v>87.10761271643833</v>
@@ -5533,10 +5533,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P17" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q17" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R17" t="n">
         <v>2191.665386213449</v>
@@ -5548,19 +5548,19 @@
         <v>2191.665386213449</v>
       </c>
       <c r="U17" t="n">
-        <v>2191.665386213449</v>
+        <v>1933.474512490925</v>
       </c>
       <c r="V17" t="n">
-        <v>1834.175971339698</v>
+        <v>1575.985097617174</v>
       </c>
       <c r="W17" t="n">
-        <v>1834.175971339698</v>
+        <v>1179.593747917521</v>
       </c>
       <c r="X17" t="n">
-        <v>1834.175971339698</v>
+        <v>872.0988639736759</v>
       </c>
       <c r="Y17" t="n">
-        <v>1834.175971339698</v>
+        <v>872.0988639736759</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H18" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I18" t="n">
         <v>88.30073447494337</v>
       </c>
       <c r="J18" t="n">
-        <v>169.4835916153554</v>
+        <v>370.497648442846</v>
       </c>
       <c r="K18" t="n">
-        <v>320.9381841013579</v>
+        <v>521.9522409288486</v>
       </c>
       <c r="L18" t="n">
-        <v>532.1149872941037</v>
+        <v>733.1290441215943</v>
       </c>
       <c r="M18" t="n">
-        <v>781.6938471317158</v>
+        <v>982.7079039592064</v>
       </c>
       <c r="N18" t="n">
-        <v>1040.219721542963</v>
+        <v>1241.233778370454</v>
       </c>
       <c r="O18" t="n">
-        <v>1273.109672780256</v>
+        <v>1474.123729607747</v>
       </c>
       <c r="P18" t="n">
-        <v>1456.882767324437</v>
+        <v>1657.896824151927</v>
       </c>
       <c r="Q18" t="n">
         <v>1772.632401645602</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.3459994645173</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="C19" t="n">
-        <v>798.3734363434332</v>
+        <v>846.1760413425178</v>
       </c>
       <c r="D19" t="n">
-        <v>635.0566634702039</v>
+        <v>682.8592684692885</v>
       </c>
       <c r="E19" t="n">
-        <v>468.8484576230575</v>
+        <v>516.651062622142</v>
       </c>
       <c r="F19" t="n">
-        <v>296.9866833976179</v>
+        <v>344.7892883967024</v>
       </c>
       <c r="G19" t="n">
-        <v>131.6494731842855</v>
+        <v>179.45207818337</v>
       </c>
       <c r="H19" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I19" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J19" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K19" t="n">
-        <v>496.3180254984903</v>
+        <v>381.6345055669486</v>
       </c>
       <c r="L19" t="n">
-        <v>985.0293102399839</v>
+        <v>870.3457903084421</v>
       </c>
       <c r="M19" t="n">
-        <v>1517.522474399294</v>
+        <v>989.3034740049304</v>
       </c>
       <c r="N19" t="n">
-        <v>1634.928458220693</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O19" t="n">
-        <v>1740.927831326518</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P19" t="n">
-        <v>2140.554082608811</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q19" t="n">
         <v>2191.665386213449</v>
@@ -5700,25 +5700,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.982504260494</v>
+        <v>2031.8763562978</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.982504260494</v>
+        <v>1873.04016107415</v>
       </c>
       <c r="U19" t="n">
-        <v>2185.982504260494</v>
+        <v>1592.905881274042</v>
       </c>
       <c r="V19" t="n">
-        <v>1904.271036868523</v>
+        <v>1311.19441388207</v>
       </c>
       <c r="W19" t="n">
-        <v>1629.418633041036</v>
+        <v>1036.342010054583</v>
       </c>
       <c r="X19" t="n">
-        <v>1386.854736486841</v>
+        <v>1036.342010054583</v>
       </c>
       <c r="Y19" t="n">
-        <v>1160.511968176583</v>
+        <v>1036.342010054583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>747.603286003359</v>
+        <v>1745.127780188711</v>
       </c>
       <c r="C20" t="n">
-        <v>320.7025560166592</v>
+        <v>1318.227050202011</v>
       </c>
       <c r="D20" t="n">
-        <v>320.7025560166592</v>
+        <v>894.9344293870113</v>
       </c>
       <c r="E20" t="n">
-        <v>320.7025560166592</v>
+        <v>468.9574895348688</v>
       </c>
       <c r="F20" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G20" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="H20" t="n">
         <v>43.83330772426898</v>
@@ -5779,25 +5779,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S20" t="n">
-        <v>2134.022630614366</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="T20" t="n">
-        <v>1922.072887082163</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="U20" t="n">
-        <v>1922.072887082163</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="V20" t="n">
-        <v>1564.583472208412</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="W20" t="n">
-        <v>1168.192122508759</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.940556048469</v>
+        <v>2164.976144480241</v>
       </c>
       <c r="Y20" t="n">
-        <v>747.603286003359</v>
+        <v>2164.976144480241</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>88.30073447494337</v>
       </c>
       <c r="J21" t="n">
-        <v>169.4835916153554</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K21" t="n">
-        <v>320.938184101358</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L21" t="n">
-        <v>532.1149872941039</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M21" t="n">
-        <v>781.693847131716</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N21" t="n">
-        <v>1040.219721542963</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O21" t="n">
         <v>1368.668229322841</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>882.5298340045008</v>
+        <v>387.6676450707926</v>
       </c>
       <c r="C22" t="n">
-        <v>710.5572708834168</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="D22" t="n">
-        <v>547.2404980101875</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="E22" t="n">
-        <v>381.032292163041</v>
+        <v>215.6950819497086</v>
       </c>
       <c r="F22" t="n">
-        <v>209.1705179376014</v>
+        <v>43.83330772426898</v>
       </c>
       <c r="G22" t="n">
         <v>43.83330772426898</v>
@@ -5913,13 +5913,13 @@
         <v>165.0575948409233</v>
       </c>
       <c r="K22" t="n">
-        <v>496.3180254984903</v>
+        <v>495.8614160731904</v>
       </c>
       <c r="L22" t="n">
-        <v>608.6404166488189</v>
+        <v>608.183807223519</v>
       </c>
       <c r="M22" t="n">
-        <v>742.6440485409489</v>
+        <v>1140.676971382829</v>
       </c>
       <c r="N22" t="n">
         <v>1258.082955204228</v>
@@ -5937,25 +5937,25 @@
         <v>2185.982504260494</v>
       </c>
       <c r="S22" t="n">
-        <v>2031.8763562978</v>
+        <v>2122.847895973299</v>
       </c>
       <c r="T22" t="n">
-        <v>1792.466889991379</v>
+        <v>1883.438429666877</v>
       </c>
       <c r="U22" t="n">
-        <v>1512.33261019127</v>
+        <v>1603.304149866769</v>
       </c>
       <c r="V22" t="n">
-        <v>1230.621142799299</v>
+        <v>1321.592682474798</v>
       </c>
       <c r="W22" t="n">
-        <v>1230.621142799299</v>
+        <v>1046.740278647311</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.621142799299</v>
+        <v>804.1763820931162</v>
       </c>
       <c r="Y22" t="n">
-        <v>1072.695802716567</v>
+        <v>577.8336137828583</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1148.147279557463</v>
+        <v>1154.530008344607</v>
       </c>
       <c r="C23" t="n">
-        <v>1148.147279557463</v>
+        <v>893.1028683914112</v>
       </c>
       <c r="D23" t="n">
-        <v>1148.115354224523</v>
+        <v>469.8102475764114</v>
       </c>
       <c r="E23" t="n">
-        <v>1148.115354224523</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F23" t="n">
-        <v>722.9911724139236</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G23" t="n">
-        <v>320.7025560166592</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H23" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I23" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J23" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037497</v>
       </c>
       <c r="K23" t="n">
         <v>448.7747784804926</v>
       </c>
       <c r="L23" t="n">
-        <v>727.9824581050661</v>
+        <v>727.982458105066</v>
       </c>
       <c r="M23" t="n">
         <v>1043.801082832444</v>
@@ -6007,10 +6007,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P23" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q23" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R23" t="n">
         <v>2191.665386213449</v>
@@ -6031,10 +6031,10 @@
         <v>1979.715642681246</v>
       </c>
       <c r="X23" t="n">
-        <v>1567.995643848993</v>
+        <v>1979.715642681246</v>
       </c>
       <c r="Y23" t="n">
-        <v>1567.995643848993</v>
+        <v>1574.378372636137</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H24" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I24" t="n">
         <v>64.84342863053153</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>296.6961053952936</v>
+        <v>486.8620741073597</v>
       </c>
       <c r="C25" t="n">
-        <v>296.6961053952936</v>
+        <v>486.8620741073597</v>
       </c>
       <c r="D25" t="n">
-        <v>133.3793325220643</v>
+        <v>486.8620741073597</v>
       </c>
       <c r="E25" t="n">
-        <v>133.3793325220643</v>
+        <v>320.6538682602132</v>
       </c>
       <c r="F25" t="n">
-        <v>133.3793325220643</v>
+        <v>320.6538682602132</v>
       </c>
       <c r="G25" t="n">
-        <v>133.3793325220643</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H25" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I25" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J25" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K25" t="n">
-        <v>496.3180254984903</v>
+        <v>249.0354163844683</v>
       </c>
       <c r="L25" t="n">
-        <v>834.5126341488229</v>
+        <v>361.3578075347969</v>
       </c>
       <c r="M25" t="n">
-        <v>1367.005798308133</v>
+        <v>893.8509716941071</v>
       </c>
       <c r="N25" t="n">
-        <v>1484.411782129532</v>
+        <v>1409.289878357386</v>
       </c>
       <c r="O25" t="n">
-        <v>1589.554333948619</v>
+        <v>1892.134754479676</v>
       </c>
       <c r="P25" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q25" t="n">
         <v>2191.665386213449</v>
@@ -6180,19 +6180,19 @@
         <v>1792.466889991379</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.33261019127</v>
+        <v>1512.332610191271</v>
       </c>
       <c r="V25" t="n">
-        <v>1230.621142799299</v>
+        <v>1230.6211427993</v>
       </c>
       <c r="W25" t="n">
-        <v>955.7687389718121</v>
+        <v>955.7687389718126</v>
       </c>
       <c r="X25" t="n">
-        <v>713.2048424176172</v>
+        <v>713.2048424176177</v>
       </c>
       <c r="Y25" t="n">
-        <v>486.8620741073593</v>
+        <v>486.8620741073597</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1595.096298494401</v>
+        <v>1067.720408359936</v>
       </c>
       <c r="C26" t="n">
-        <v>1595.096298494401</v>
+        <v>640.8196783732358</v>
       </c>
       <c r="D26" t="n">
-        <v>1171.803677679402</v>
+        <v>640.8196783732358</v>
       </c>
       <c r="E26" t="n">
-        <v>745.826737827259</v>
+        <v>640.8196783732358</v>
       </c>
       <c r="F26" t="n">
         <v>320.7025560166592</v>
@@ -6220,58 +6220,58 @@
         <v>320.7025560166592</v>
       </c>
       <c r="H26" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I26" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J26" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037497</v>
       </c>
       <c r="K26" t="n">
-        <v>448.7747784804926</v>
+        <v>448.7747784804927</v>
       </c>
       <c r="L26" t="n">
-        <v>727.9824581050661</v>
+        <v>727.9824581050664</v>
       </c>
       <c r="M26" t="n">
         <v>1043.801082832444</v>
       </c>
       <c r="N26" t="n">
-        <v>1365.479726947677</v>
+        <v>1365.479726947678</v>
       </c>
       <c r="O26" t="n">
         <v>1667.064768900565</v>
       </c>
       <c r="P26" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q26" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R26" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S26" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="T26" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614366</v>
       </c>
       <c r="U26" t="n">
-        <v>1933.474512490924</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="V26" t="n">
-        <v>1595.096298494401</v>
+        <v>1875.831756891841</v>
       </c>
       <c r="W26" t="n">
-        <v>1595.096298494401</v>
+        <v>1479.440407192188</v>
       </c>
       <c r="X26" t="n">
-        <v>1595.096298494401</v>
+        <v>1067.720408359936</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.096298494401</v>
+        <v>1067.720408359936</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H27" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I27" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J27" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K27" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L27" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M27" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N27" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O27" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P27" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q27" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R27" t="n">
         <v>1815.956238873899</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>296.6961053952936</v>
+        <v>576.8303851954024</v>
       </c>
       <c r="C28" t="n">
-        <v>124.7235422742096</v>
+        <v>576.8303851954024</v>
       </c>
       <c r="D28" t="n">
-        <v>43.83330772426898</v>
+        <v>413.5136123221731</v>
       </c>
       <c r="E28" t="n">
-        <v>43.83330772426898</v>
+        <v>413.5136123221731</v>
       </c>
       <c r="F28" t="n">
-        <v>43.83330772426898</v>
+        <v>413.5136123221731</v>
       </c>
       <c r="G28" t="n">
-        <v>43.83330772426898</v>
+        <v>248.1764021088407</v>
       </c>
       <c r="H28" t="n">
-        <v>43.83330772426898</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I28" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J28" t="n">
         <v>165.0575948409233</v>
       </c>
       <c r="K28" t="n">
-        <v>496.3180254984903</v>
+        <v>249.0354163844683</v>
       </c>
       <c r="L28" t="n">
-        <v>608.6404166488189</v>
+        <v>737.7467011259619</v>
       </c>
       <c r="M28" t="n">
-        <v>968.9728754662528</v>
+        <v>856.7043848224502</v>
       </c>
       <c r="N28" t="n">
-        <v>1484.411782129532</v>
+        <v>1372.143291485729</v>
       </c>
       <c r="O28" t="n">
-        <v>1589.554333948619</v>
+        <v>1854.988167608019</v>
       </c>
       <c r="P28" t="n">
-        <v>1989.180585230912</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q28" t="n">
         <v>2191.665386213449</v>
@@ -6417,19 +6417,19 @@
         <v>1792.466889991379</v>
       </c>
       <c r="U28" t="n">
-        <v>1512.33261019127</v>
+        <v>1792.466889991379</v>
       </c>
       <c r="V28" t="n">
-        <v>1230.621142799299</v>
+        <v>1510.755422599408</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7687389718121</v>
+        <v>1235.903018771921</v>
       </c>
       <c r="X28" t="n">
-        <v>713.2048424176172</v>
+        <v>993.339122217726</v>
       </c>
       <c r="Y28" t="n">
-        <v>486.8620741073593</v>
+        <v>766.996353907468</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>470.7340377109689</v>
+        <v>1724.123775770975</v>
       </c>
       <c r="C29" t="n">
-        <v>43.83330772426898</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="D29" t="n">
-        <v>43.83330772426898</v>
+        <v>1297.223045784276</v>
       </c>
       <c r="E29" t="n">
-        <v>43.83330772426898</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F29" t="n">
-        <v>43.83330772426898</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G29" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H29" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I29" t="n">
-        <v>87.10761271643844</v>
+        <v>87.10761271643833</v>
       </c>
       <c r="J29" t="n">
-        <v>228.5477172037496</v>
+        <v>228.5477172037497</v>
       </c>
       <c r="K29" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804927</v>
       </c>
       <c r="L29" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050664</v>
       </c>
       <c r="M29" t="n">
         <v>1043.801082832444</v>
@@ -6481,34 +6481,34 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P29" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q29" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R29" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="S29" t="n">
-        <v>2191.665386213449</v>
+        <v>2135.843774603228</v>
       </c>
       <c r="T29" t="n">
-        <v>2191.665386213449</v>
+        <v>2135.843774603228</v>
       </c>
       <c r="U29" t="n">
-        <v>2191.665386213449</v>
+        <v>2135.843774603228</v>
       </c>
       <c r="V29" t="n">
-        <v>2104.031020579514</v>
+        <v>2135.843774603228</v>
       </c>
       <c r="W29" t="n">
-        <v>1707.639670879861</v>
+        <v>2135.843774603228</v>
       </c>
       <c r="X29" t="n">
-        <v>1295.919672047609</v>
+        <v>1724.123775770975</v>
       </c>
       <c r="Y29" t="n">
-        <v>890.582402002499</v>
+        <v>1724.123775770975</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H30" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I30" t="n">
         <v>64.84342863053153</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.6387258917105</v>
+        <v>710.5572708834168</v>
       </c>
       <c r="C31" t="n">
-        <v>782.6661627706264</v>
+        <v>710.5572708834168</v>
       </c>
       <c r="D31" t="n">
-        <v>619.3493898973971</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="E31" t="n">
-        <v>453.1411840502507</v>
+        <v>381.032292163041</v>
       </c>
       <c r="F31" t="n">
-        <v>281.2794098248111</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G31" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9421996114787</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I31" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K31" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L31" t="n">
-        <v>936.4425694177681</v>
+        <v>659.8249844777411</v>
       </c>
       <c r="M31" t="n">
-        <v>1055.400253114256</v>
+        <v>778.7826681742293</v>
       </c>
       <c r="N31" t="n">
-        <v>1570.839159777536</v>
+        <v>1294.221574837508</v>
       </c>
       <c r="O31" t="n">
-        <v>2053.684035899826</v>
+        <v>1777.066450959798</v>
       </c>
       <c r="P31" t="n">
-        <v>2140.554082608811</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q31" t="n">
         <v>2191.665386213449</v>
@@ -6648,25 +6648,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S31" t="n">
-        <v>2191.665386213449</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T31" t="n">
-        <v>1952.255919907028</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U31" t="n">
-        <v>1672.12164010692</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.12164010692</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.711359468229</v>
+        <v>1243.163088316739</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.147462914034</v>
+        <v>1000.599191762544</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.804694603776</v>
+        <v>900.7232395954825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1598.704407666101</v>
+        <v>504.6639787411249</v>
       </c>
       <c r="C32" t="n">
-        <v>1171.803677679402</v>
+        <v>504.6639787411249</v>
       </c>
       <c r="D32" t="n">
-        <v>1171.803677679402</v>
+        <v>504.6639787411249</v>
       </c>
       <c r="E32" t="n">
-        <v>745.826737827259</v>
+        <v>504.6639787411249</v>
       </c>
       <c r="F32" t="n">
-        <v>320.7025560166592</v>
+        <v>504.6639787411249</v>
       </c>
       <c r="G32" t="n">
-        <v>320.7025560166592</v>
+        <v>102.3753623438604</v>
       </c>
       <c r="H32" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I32" t="n">
         <v>87.10761271643844</v>
       </c>
       <c r="J32" t="n">
-        <v>228.5477172037493</v>
+        <v>228.5477172037498</v>
       </c>
       <c r="K32" t="n">
-        <v>448.7747784804923</v>
+        <v>448.7747784804928</v>
       </c>
       <c r="L32" t="n">
-        <v>727.9824581050659</v>
+        <v>727.9824581050664</v>
       </c>
       <c r="M32" t="n">
         <v>1043.801082832444</v>
@@ -6718,10 +6718,10 @@
         <v>1667.064768900565</v>
       </c>
       <c r="P32" t="n">
-        <v>1918.85421215123</v>
+        <v>1918.854212151231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2100.109526681865</v>
+        <v>2100.109526681866</v>
       </c>
       <c r="R32" t="n">
         <v>2191.665386213449</v>
@@ -6730,22 +6730,22 @@
         <v>2134.022630614366</v>
       </c>
       <c r="T32" t="n">
-        <v>2134.022630614366</v>
+        <v>1922.072887082163</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.424406498354</v>
+        <v>1663.882013359638</v>
       </c>
       <c r="V32" t="n">
-        <v>2010.424406498354</v>
+        <v>1306.392598485888</v>
       </c>
       <c r="W32" t="n">
-        <v>2010.424406498354</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="X32" t="n">
-        <v>1598.704407666101</v>
+        <v>910.0012487862346</v>
       </c>
       <c r="Y32" t="n">
-        <v>1598.704407666101</v>
+        <v>504.6639787411249</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H33" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="I33" t="n">
         <v>88.30073447494337</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1018.148604463602</v>
+        <v>735.1088526145097</v>
       </c>
       <c r="C34" t="n">
-        <v>846.1760413425178</v>
+        <v>563.1362894934257</v>
       </c>
       <c r="D34" t="n">
-        <v>682.8592684692885</v>
+        <v>563.1362894934257</v>
       </c>
       <c r="E34" t="n">
-        <v>516.651062622142</v>
+        <v>396.9280836462792</v>
       </c>
       <c r="F34" t="n">
-        <v>344.7892883967024</v>
+        <v>396.9280836462792</v>
       </c>
       <c r="G34" t="n">
-        <v>179.45207818337</v>
+        <v>231.5908734329468</v>
       </c>
       <c r="H34" t="n">
-        <v>43.83330772426898</v>
+        <v>95.97210297384578</v>
       </c>
       <c r="I34" t="n">
-        <v>43.83330772426898</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="J34" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K34" t="n">
-        <v>249.0354163844682</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L34" t="n">
-        <v>361.3578075347968</v>
+        <v>608.1838072235195</v>
       </c>
       <c r="M34" t="n">
-        <v>893.850971694107</v>
+        <v>1140.67697138283</v>
       </c>
       <c r="N34" t="n">
-        <v>1106.709457826329</v>
+        <v>1258.082955204228</v>
       </c>
       <c r="O34" t="n">
-        <v>1589.554333948619</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P34" t="n">
-        <v>1989.180585230912</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q34" t="n">
         <v>2191.665386213449</v>
       </c>
       <c r="R34" t="n">
-        <v>2191.483108174029</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S34" t="n">
-        <v>2191.483108174029</v>
+        <v>2037.559238250755</v>
       </c>
       <c r="T34" t="n">
-        <v>1952.073641867607</v>
+        <v>1798.149771944334</v>
       </c>
       <c r="U34" t="n">
-        <v>1952.073641867607</v>
+        <v>1518.015492144226</v>
       </c>
       <c r="V34" t="n">
-        <v>1952.073641867607</v>
+        <v>1236.304024752255</v>
       </c>
       <c r="W34" t="n">
-        <v>1677.22123804012</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="X34" t="n">
-        <v>1434.657341485925</v>
+        <v>961.4516209247677</v>
       </c>
       <c r="Y34" t="n">
-        <v>1208.314573175667</v>
+        <v>735.1088526145097</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2134.022630614366</v>
+        <v>894.0266585259686</v>
       </c>
       <c r="C35" t="n">
-        <v>1707.121900627666</v>
+        <v>467.1259285392687</v>
       </c>
       <c r="D35" t="n">
-        <v>1283.829279812667</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="E35" t="n">
-        <v>857.8523399605243</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="F35" t="n">
-        <v>432.7281581499245</v>
+        <v>43.83330772426899</v>
       </c>
       <c r="G35" t="n">
         <v>43.83330772426899</v>
@@ -6964,25 +6964,25 @@
         <v>2191.665386213449</v>
       </c>
       <c r="S35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T35" t="n">
-        <v>2134.022630614366</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U35" t="n">
-        <v>2134.022630614366</v>
+        <v>2068.573342277082</v>
       </c>
       <c r="V35" t="n">
-        <v>2134.022630614366</v>
+        <v>1711.083927403331</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.022630614366</v>
+        <v>1711.083927403331</v>
       </c>
       <c r="X35" t="n">
-        <v>2134.022630614366</v>
+        <v>1299.363928571078</v>
       </c>
       <c r="Y35" t="n">
-        <v>2134.022630614366</v>
+        <v>894.0266585259686</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>43.83330772426899</v>
       </c>
       <c r="I36" t="n">
-        <v>64.84342863053153</v>
+        <v>88.30073447494337</v>
       </c>
       <c r="J36" t="n">
-        <v>146.0262857709435</v>
+        <v>265.0421481579399</v>
       </c>
       <c r="K36" t="n">
-        <v>297.4808782569462</v>
+        <v>416.4967406439425</v>
       </c>
       <c r="L36" t="n">
-        <v>508.6576814496921</v>
+        <v>627.6735438366884</v>
       </c>
       <c r="M36" t="n">
-        <v>758.2365412873041</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N36" t="n">
-        <v>1016.762415698551</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O36" t="n">
-        <v>1249.652366935845</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P36" t="n">
-        <v>1433.425461480025</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q36" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R36" t="n">
         <v>1815.956238873899</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>450.8022533579883</v>
+        <v>710.5572708834168</v>
       </c>
       <c r="C37" t="n">
-        <v>278.8296902369043</v>
+        <v>710.5572708834168</v>
       </c>
       <c r="D37" t="n">
-        <v>278.8296902369043</v>
+        <v>547.2404980101875</v>
       </c>
       <c r="E37" t="n">
-        <v>278.8296902369043</v>
+        <v>381.032292163041</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9679160114647</v>
+        <v>209.1705179376014</v>
       </c>
       <c r="G37" t="n">
         <v>43.83330772426899</v>
@@ -7098,19 +7098,19 @@
         <v>165.0575948409233</v>
       </c>
       <c r="K37" t="n">
-        <v>496.3180254984903</v>
+        <v>359.9904763162332</v>
       </c>
       <c r="L37" t="n">
-        <v>608.6404166488189</v>
+        <v>472.3128674665618</v>
       </c>
       <c r="M37" t="n">
-        <v>1141.133580808129</v>
+        <v>591.2705511630502</v>
       </c>
       <c r="N37" t="n">
-        <v>1419.465662399637</v>
+        <v>1106.709457826329</v>
       </c>
       <c r="O37" t="n">
-        <v>1902.310538521927</v>
+        <v>1589.554333948619</v>
       </c>
       <c r="P37" t="n">
         <v>1989.180585230913</v>
@@ -7119,28 +7119,28 @@
         <v>2191.665386213449</v>
       </c>
       <c r="R37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="T37" t="n">
-        <v>1946.573037954073</v>
+        <v>2191.665386213449</v>
       </c>
       <c r="U37" t="n">
-        <v>1666.438758153965</v>
+        <v>1926.193775679393</v>
       </c>
       <c r="V37" t="n">
-        <v>1384.727290761994</v>
+        <v>1644.482308287422</v>
       </c>
       <c r="W37" t="n">
-        <v>1109.874886934507</v>
+        <v>1369.629904459935</v>
       </c>
       <c r="X37" t="n">
-        <v>867.3109903803119</v>
+        <v>1127.06600790574</v>
       </c>
       <c r="Y37" t="n">
-        <v>640.9682220700539</v>
+        <v>900.7232395954825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.83330772426899</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="C38" t="n">
-        <v>43.83330772426899</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="D38" t="n">
-        <v>43.83330772426899</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="E38" t="n">
-        <v>43.83330772426899</v>
+        <v>1148.115354224523</v>
       </c>
       <c r="F38" t="n">
-        <v>43.83330772426899</v>
+        <v>722.9911724139236</v>
       </c>
       <c r="G38" t="n">
-        <v>43.83330772426899</v>
+        <v>320.7025560166591</v>
       </c>
       <c r="H38" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I38" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J38" t="n">
-        <v>228.5477172037497</v>
+        <v>228.54771720375</v>
       </c>
       <c r="K38" t="n">
-        <v>448.7747784804927</v>
+        <v>448.7747784804931</v>
       </c>
       <c r="L38" t="n">
-        <v>727.9824581050664</v>
+        <v>727.9824581050667</v>
       </c>
       <c r="M38" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N38" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947679</v>
       </c>
       <c r="O38" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900566</v>
       </c>
       <c r="P38" t="n">
         <v>1918.854212151231</v>
@@ -7198,28 +7198,28 @@
         <v>2100.109526681866</v>
       </c>
       <c r="R38" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="S38" t="n">
-        <v>2191.665386213449</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="T38" t="n">
-        <v>1979.715642681246</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="U38" t="n">
-        <v>1721.524768958721</v>
+        <v>1970.483643776319</v>
       </c>
       <c r="V38" t="n">
-        <v>1364.035354084971</v>
+        <v>1970.483643776319</v>
       </c>
       <c r="W38" t="n">
-        <v>967.6440043853177</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="X38" t="n">
-        <v>555.9240055530649</v>
+        <v>1574.092294076666</v>
       </c>
       <c r="Y38" t="n">
-        <v>150.5867355079553</v>
+        <v>1574.092294076666</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H39" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I39" t="n">
-        <v>64.84342863053153</v>
+        <v>88.3007344749434</v>
       </c>
       <c r="J39" t="n">
-        <v>370.4976484428457</v>
+        <v>265.0421481579398</v>
       </c>
       <c r="K39" t="n">
-        <v>521.9522409288484</v>
+        <v>416.4967406439424</v>
       </c>
       <c r="L39" t="n">
-        <v>733.1290441215942</v>
+        <v>627.6735438366883</v>
       </c>
       <c r="M39" t="n">
-        <v>982.7079039592063</v>
+        <v>877.2524036743005</v>
       </c>
       <c r="N39" t="n">
-        <v>1241.233778370454</v>
+        <v>1135.778278085548</v>
       </c>
       <c r="O39" t="n">
-        <v>1474.123729607747</v>
+        <v>1368.668229322841</v>
       </c>
       <c r="P39" t="n">
-        <v>1657.896824151927</v>
+        <v>1552.441323867022</v>
       </c>
       <c r="Q39" t="n">
-        <v>1772.632401645602</v>
+        <v>1667.176901360697</v>
       </c>
       <c r="R39" t="n">
         <v>1815.956238873899</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.5449560603148</v>
+        <v>1090.257496350811</v>
       </c>
       <c r="C40" t="n">
-        <v>492.5449560603148</v>
+        <v>918.2849332297275</v>
       </c>
       <c r="D40" t="n">
-        <v>329.2281831870855</v>
+        <v>754.9681603564982</v>
       </c>
       <c r="E40" t="n">
-        <v>163.0199773399391</v>
+        <v>588.7599545093517</v>
       </c>
       <c r="F40" t="n">
-        <v>163.0199773399391</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0199773399391</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H40" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I40" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="J40" t="n">
-        <v>87.13587819270248</v>
+        <v>165.0575948409233</v>
       </c>
       <c r="K40" t="n">
-        <v>381.6345055669486</v>
+        <v>411.8981285166568</v>
       </c>
       <c r="L40" t="n">
-        <v>870.3457903084421</v>
+        <v>900.6094132581503</v>
       </c>
       <c r="M40" t="n">
-        <v>989.3034740049304</v>
+        <v>1433.10257741746</v>
       </c>
       <c r="N40" t="n">
-        <v>1106.709457826329</v>
+        <v>1948.54148408074</v>
       </c>
       <c r="O40" t="n">
-        <v>1589.554333948619</v>
+        <v>2053.684035899827</v>
       </c>
       <c r="P40" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q40" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="R40" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="S40" t="n">
-        <v>2037.559238250755</v>
+        <v>2037.559238250756</v>
       </c>
       <c r="T40" t="n">
-        <v>1798.149771944334</v>
+        <v>2037.559238250756</v>
       </c>
       <c r="U40" t="n">
-        <v>1518.015492144226</v>
+        <v>1757.424958450647</v>
       </c>
       <c r="V40" t="n">
-        <v>1236.304024752255</v>
+        <v>1555.275868890364</v>
       </c>
       <c r="W40" t="n">
-        <v>961.4516209247677</v>
+        <v>1280.423465062877</v>
       </c>
       <c r="X40" t="n">
-        <v>718.8877243705728</v>
+        <v>1280.423465062877</v>
       </c>
       <c r="Y40" t="n">
-        <v>492.5449560603148</v>
+        <v>1280.423465062877</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1146.283793228923</v>
+        <v>1298.146835918833</v>
       </c>
       <c r="C41" t="n">
-        <v>1146.283793228923</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="D41" t="n">
-        <v>722.9911724139236</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="E41" t="n">
-        <v>722.9911724139236</v>
+        <v>871.2461059321332</v>
       </c>
       <c r="F41" t="n">
-        <v>722.9911724139236</v>
+        <v>446.1219241215334</v>
       </c>
       <c r="G41" t="n">
-        <v>320.7025560166592</v>
+        <v>43.833307724269</v>
       </c>
       <c r="H41" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I41" t="n">
-        <v>87.10761271643833</v>
+        <v>87.10761271643844</v>
       </c>
       <c r="J41" t="n">
-        <v>228.5477172037497</v>
+        <v>228.5477172037496</v>
       </c>
       <c r="K41" t="n">
         <v>448.7747784804926</v>
       </c>
       <c r="L41" t="n">
-        <v>727.982458105066</v>
+        <v>727.9824581050663</v>
       </c>
       <c r="M41" t="n">
         <v>1043.801082832444</v>
@@ -7426,7 +7426,7 @@
         <v>1365.479726947678</v>
       </c>
       <c r="O41" t="n">
-        <v>1667.064768900565</v>
+        <v>1667.064768900566</v>
       </c>
       <c r="P41" t="n">
         <v>1918.854212151231</v>
@@ -7435,28 +7435,28 @@
         <v>2100.109526681866</v>
       </c>
       <c r="R41" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="S41" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="T41" t="n">
-        <v>2134.022630614366</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="U41" t="n">
-        <v>1963.341062106286</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="V41" t="n">
-        <v>1963.341062106286</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="W41" t="n">
-        <v>1963.341062106286</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="X41" t="n">
-        <v>1551.621063274033</v>
+        <v>1722.302631782114</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.283793228923</v>
+        <v>1316.965361737005</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>86.6138662670264</v>
       </c>
       <c r="H42" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="I42" t="n">
-        <v>64.84342863053153</v>
+        <v>64.84342863053155</v>
       </c>
       <c r="J42" t="n">
-        <v>370.4976484428457</v>
+        <v>370.4976484428456</v>
       </c>
       <c r="K42" t="n">
-        <v>521.9522409288484</v>
+        <v>521.9522409288483</v>
       </c>
       <c r="L42" t="n">
-        <v>733.1290441215942</v>
+        <v>733.1290441215941</v>
       </c>
       <c r="M42" t="n">
         <v>982.7079039592063</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>682.9700573649329</v>
+        <v>918.3957221253719</v>
       </c>
       <c r="C43" t="n">
-        <v>510.9974942438489</v>
+        <v>746.4231590042879</v>
       </c>
       <c r="D43" t="n">
-        <v>510.9974942438489</v>
+        <v>583.1063861310586</v>
       </c>
       <c r="E43" t="n">
-        <v>344.7892883967024</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="F43" t="n">
-        <v>344.7892883967024</v>
+        <v>416.8981802839122</v>
       </c>
       <c r="G43" t="n">
-        <v>179.45207818337</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H43" t="n">
-        <v>43.83330772426899</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I43" t="n">
-        <v>43.83330772426899</v>
+        <v>43.833307724269</v>
       </c>
       <c r="J43" t="n">
         <v>87.13587819270248</v>
       </c>
       <c r="K43" t="n">
-        <v>171.1136997362474</v>
+        <v>418.3963088502695</v>
       </c>
       <c r="L43" t="n">
-        <v>587.8532086848423</v>
+        <v>530.7187000005981</v>
       </c>
       <c r="M43" t="n">
-        <v>1120.346372844152</v>
+        <v>968.9728754662538</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.785279507432</v>
+        <v>1484.411782129533</v>
       </c>
       <c r="O43" t="n">
-        <v>1740.927831326519</v>
+        <v>1589.55433394862</v>
       </c>
       <c r="P43" t="n">
-        <v>2140.554082608812</v>
+        <v>1989.180585230913</v>
       </c>
       <c r="Q43" t="n">
-        <v>2191.665386213449</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="R43" t="n">
-        <v>2185.982504260494</v>
+        <v>2191.66538621345</v>
       </c>
       <c r="S43" t="n">
-        <v>2031.8763562978</v>
+        <v>2037.559238250756</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.466889991379</v>
+        <v>1859.179823093861</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.332610191271</v>
+        <v>1859.179823093861</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.6211427993</v>
+        <v>1577.46835570189</v>
       </c>
       <c r="W43" t="n">
-        <v>955.7687389718126</v>
+        <v>1577.46835570189</v>
       </c>
       <c r="X43" t="n">
-        <v>713.2048424176177</v>
+        <v>1334.904459147695</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.9700573649329</v>
+        <v>1108.561690837437</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.833307724269</v>
+        <v>242.5347740232963</v>
       </c>
       <c r="C44" t="n">
-        <v>43.833307724269</v>
+        <v>242.5347740232963</v>
       </c>
       <c r="D44" t="n">
         <v>43.833307724269</v>
@@ -7657,10 +7657,10 @@
         <v>727.9824581050663</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.801082832444</v>
+        <v>1043.801082832445</v>
       </c>
       <c r="N44" t="n">
-        <v>1365.479726947678</v>
+        <v>1365.479726947679</v>
       </c>
       <c r="O44" t="n">
         <v>1667.064768900566</v>
@@ -7678,22 +7678,22 @@
         <v>2134.022630614367</v>
       </c>
       <c r="T44" t="n">
-        <v>1922.072887082164</v>
+        <v>2134.022630614367</v>
       </c>
       <c r="U44" t="n">
-        <v>1663.882013359639</v>
+        <v>1875.831756891842</v>
       </c>
       <c r="V44" t="n">
-        <v>1306.392598485888</v>
+        <v>1875.831756891842</v>
       </c>
       <c r="W44" t="n">
-        <v>910.001248786235</v>
+        <v>1479.440407192189</v>
       </c>
       <c r="X44" t="n">
-        <v>498.2812499539822</v>
+        <v>1067.720408359936</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.94397990887256</v>
+        <v>662.3831383148264</v>
       </c>
     </row>
     <row r="45">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>547.2404980101875</v>
+        <v>924.9202861374791</v>
       </c>
       <c r="C46" t="n">
-        <v>547.2404980101875</v>
+        <v>752.9477230163951</v>
       </c>
       <c r="D46" t="n">
-        <v>547.2404980101875</v>
+        <v>589.6309501431658</v>
       </c>
       <c r="E46" t="n">
-        <v>381.032292163041</v>
+        <v>423.4227442960193</v>
       </c>
       <c r="F46" t="n">
-        <v>209.1705179376014</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="G46" t="n">
-        <v>43.833307724269</v>
+        <v>251.5609700705797</v>
       </c>
       <c r="H46" t="n">
-        <v>43.833307724269</v>
+        <v>115.9421996114787</v>
       </c>
       <c r="I46" t="n">
         <v>43.833307724269</v>
       </c>
       <c r="J46" t="n">
-        <v>165.0575948409233</v>
+        <v>87.13587819270248</v>
       </c>
       <c r="K46" t="n">
-        <v>496.3180254984903</v>
+        <v>171.1136997362474</v>
       </c>
       <c r="L46" t="n">
-        <v>850.0151917697655</v>
+        <v>623.6863648444615</v>
       </c>
       <c r="M46" t="n">
-        <v>968.9728754662538</v>
+        <v>742.6440485409498</v>
       </c>
       <c r="N46" t="n">
-        <v>1484.411782129533</v>
+        <v>1258.082955204229</v>
       </c>
       <c r="O46" t="n">
-        <v>1589.55433394862</v>
+        <v>1740.927831326519</v>
       </c>
       <c r="P46" t="n">
-        <v>1989.180585230913</v>
+        <v>2140.554082608812</v>
       </c>
       <c r="Q46" t="n">
         <v>2191.66538621345</v>
@@ -7833,25 +7833,25 @@
         <v>2185.982504260495</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.982504260495</v>
+        <v>2031.876356297801</v>
       </c>
       <c r="T46" t="n">
-        <v>1946.573037954074</v>
+        <v>1951.784405869111</v>
       </c>
       <c r="U46" t="n">
-        <v>1762.877002806164</v>
+        <v>1671.650126069003</v>
       </c>
       <c r="V46" t="n">
-        <v>1481.165535414193</v>
+        <v>1389.938658677032</v>
       </c>
       <c r="W46" t="n">
-        <v>1206.313131586706</v>
+        <v>1115.086254849545</v>
       </c>
       <c r="X46" t="n">
-        <v>963.749235032511</v>
+        <v>1115.086254849545</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.4064667222531</v>
+        <v>1115.086254849545</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.52379448746002</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>203.0445018459502</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>411.1487880093015</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>264.348862282447</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>226.7387501736388</v>
+        <v>96.5237944874594</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>279.411701959623</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.57428074238346</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>203.0445018459501</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.0445018459503</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>133.9384739216973</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.865476047210521</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.52379448745911</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.52379448745901</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9561,16 +9561,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>249.3191916047699</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>15.19792747034512</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9798,22 +9798,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>228.1537550505091</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>10.2785697396471</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.52379448745911</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>243.8129041625713</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>47.80037466051282</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>331.1132856252012</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>279.4117019596239</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>328.0279962999429</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>96.41666900083122</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>96.52379448745911</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>226.7387501736386</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>112.0758181128939</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>162.551613909201</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>226.7387501736386</v>
+        <v>96.52379448745896</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>212.6472786168699</v>
+        <v>164.5077900325136</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>226.7387501736386</v>
+        <v>226.7387501736385</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>307.492038180067</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>322.5217088577448</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>243.8129041625723</v>
+        <v>343.6871454120055</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,13 +11469,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.2657302332918</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.8302460968812</v>
+        <v>32.70483710868061</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6151842361574</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.26258275451</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14.03235562635619</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.626053133425572</v>
       </c>
       <c r="S13" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.0153716433569</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>118.7123819174311</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>74.5589075314075</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>111.8129970474272</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.4552893787491</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>149.3786976085073</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>5.626053133425557</v>
       </c>
       <c r="S16" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>161.5768541164475</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6089649852995</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>103.1828637395237</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.7123819174313</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.0153716433569</v>
+        <v>79.76753837194312</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.2657302332918</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>30.64397872721597</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U20" t="n">
         <v>255.6089649852995</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>392.5037480482429</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H22" t="n">
         <v>134.26258275451</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>90.061824278744</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>67.73325394525006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>163.8188541331695</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0280885272394</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6838381111991</v>
+        <v>95.2818689034619</v>
       </c>
       <c r="H25" t="n">
-        <v>45.61201820469266</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>103.9569888594829</v>
       </c>
       <c r="G26" t="n">
         <v>398.2657302332918</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.8302460968812</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>18.92008886845542</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>81.60227294005577</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24615,13 +24615,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.26258275451</v>
+        <v>3.350722282121666</v>
       </c>
       <c r="I28" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>274.1005558094662</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.06632804309218</v>
+        <v>1.802932548973168</v>
       </c>
       <c r="T29" t="n">
         <v>209.8302460968812</v>
@@ -24739,16 +24739,16 @@
         <v>255.6089649852995</v>
       </c>
       <c r="V29" t="n">
-        <v>267.1564987474178</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>134.26258275451</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>71.38780296833761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>5.626053133425543</v>
       </c>
       <c r="S31" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>214.2777019569083</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>125.2021479817646</v>
       </c>
     </row>
     <row r="32">
@@ -24919,22 +24919,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>216.1439217360707</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.8302460968812</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>133.2467231104478</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.38780296833761</v>
+        <v>19.77039567125659</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.445597874399295</v>
+        <v>5.626053133425543</v>
       </c>
       <c r="S34" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3329370021073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>13.25982831189282</v>
+        <v>398.2657302332918</v>
       </c>
       <c r="H35" t="n">
         <v>274.1005558094662</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.06632804309218</v>
       </c>
       <c r="T35" t="n">
         <v>209.8302460968812</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6089649852995</v>
+        <v>133.7478414882955</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>101.1805759068753</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>134.26258275451</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.626053133425543</v>
       </c>
       <c r="S37" t="n">
         <v>152.5650864830671</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>14.51604257339181</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>309.9639871427653</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,16 +25399,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.2657302332918</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.1005558094662</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06632804309218</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>93.70536801563222</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6838381111991</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.26777983499666</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0153716433569</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>78.76675405337093</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>397.0195400886251</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.1005558094662</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>209.8302460968812</v>
       </c>
       <c r="U41" t="n">
-        <v>86.63421216229978</v>
+        <v>255.6089649852995</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.626053133425543</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>60.41975063803153</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3329370021073</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.1469034249975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>367.0303151858572</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>222.3452429708126</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.8302460968812</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6838381111991</v>
       </c>
       <c r="H46" t="n">
-        <v>134.26258275451</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.38780296833761</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.5650864830671</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>157.7243407189544</v>
       </c>
       <c r="U46" t="n">
-        <v>95.47386220567668</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>302869.980718024</v>
+        <v>302869.9807180238</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>302869.980718024</v>
+        <v>302869.9807180241</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>302869.9807180239</v>
+        <v>302869.980718024</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>302869.9807180239</v>
+        <v>302869.980718024</v>
       </c>
     </row>
     <row r="12">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>545069.3508420011</v>
+        <v>545069.3508420009</v>
       </c>
       <c r="C2" t="n">
         <v>545069.350842001</v>
       </c>
       <c r="D2" t="n">
-        <v>545069.3508420011</v>
+        <v>545069.3508420009</v>
       </c>
       <c r="E2" t="n">
-        <v>329443.7267813657</v>
+        <v>329443.7267813655</v>
       </c>
       <c r="F2" t="n">
-        <v>329443.7267813657</v>
+        <v>329443.7267813656</v>
       </c>
       <c r="G2" t="n">
         <v>329443.7267813656</v>
@@ -26334,25 +26334,25 @@
         <v>329443.7267813656</v>
       </c>
       <c r="I2" t="n">
+        <v>329443.7267813657</v>
+      </c>
+      <c r="J2" t="n">
+        <v>329443.7267813655</v>
+      </c>
+      <c r="K2" t="n">
         <v>329443.7267813656</v>
-      </c>
-      <c r="J2" t="n">
-        <v>329443.7267813656</v>
-      </c>
-      <c r="K2" t="n">
-        <v>329443.7267813655</v>
       </c>
       <c r="L2" t="n">
         <v>329443.7267813656</v>
       </c>
       <c r="M2" t="n">
-        <v>329443.7267813656</v>
+        <v>329443.7267813658</v>
       </c>
       <c r="N2" t="n">
         <v>329443.7267813657</v>
       </c>
       <c r="O2" t="n">
-        <v>329443.7267813657</v>
+        <v>329443.7267813658</v>
       </c>
       <c r="P2" t="n">
         <v>329443.7267813658</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>569272.4739113376</v>
+        <v>569272.4739113374</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>327481.7256441435</v>
       </c>
       <c r="E4" t="n">
-        <v>25894.67450473932</v>
+        <v>25894.67450473933</v>
       </c>
       <c r="F4" t="n">
-        <v>25894.67450473932</v>
+        <v>25894.67450473931</v>
       </c>
       <c r="G4" t="n">
         <v>25894.67450473932</v>
@@ -26438,19 +26438,19 @@
         <v>25894.67450473931</v>
       </c>
       <c r="I4" t="n">
-        <v>25894.6745047393</v>
+        <v>25894.67450473931</v>
       </c>
       <c r="J4" t="n">
         <v>25894.67450473931</v>
       </c>
       <c r="K4" t="n">
+        <v>25894.67450473932</v>
+      </c>
+      <c r="L4" t="n">
         <v>25894.67450473931</v>
       </c>
-      <c r="L4" t="n">
-        <v>25894.6745047393</v>
-      </c>
       <c r="M4" t="n">
-        <v>25894.67450473932</v>
+        <v>25894.67450473931</v>
       </c>
       <c r="N4" t="n">
         <v>25894.67450473931</v>
@@ -26459,7 +26459,7 @@
         <v>25894.67450473931</v>
       </c>
       <c r="P4" t="n">
-        <v>25894.67450473931</v>
+        <v>25894.67450473932</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781074</v>
       </c>
       <c r="F5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781075</v>
       </c>
       <c r="G5" t="n">
         <v>44321.17942781076</v>
@@ -26490,16 +26490,16 @@
         <v>44321.17942781076</v>
       </c>
       <c r="I5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781077</v>
       </c>
       <c r="J5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781077</v>
       </c>
       <c r="K5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781077</v>
       </c>
       <c r="L5" t="n">
-        <v>44321.17942781076</v>
+        <v>44321.17942781077</v>
       </c>
       <c r="M5" t="n">
         <v>44321.17942781077</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183960.0251978576</v>
+        <v>183938.3115563611</v>
       </c>
       <c r="C6" t="n">
-        <v>183960.0251978575</v>
+        <v>183938.3115563612</v>
       </c>
       <c r="D6" t="n">
-        <v>183960.0251978576</v>
+        <v>183938.3115563611</v>
       </c>
       <c r="E6" t="n">
-        <v>-310044.6010625219</v>
+        <v>-310633.7505568095</v>
       </c>
       <c r="F6" t="n">
-        <v>259227.8728488156</v>
+        <v>258638.7233545281</v>
       </c>
       <c r="G6" t="n">
-        <v>259227.8728488156</v>
+        <v>258638.7233545281</v>
       </c>
       <c r="H6" t="n">
-        <v>259227.8728488156</v>
+        <v>258638.723354528</v>
       </c>
       <c r="I6" t="n">
-        <v>259227.8728488155</v>
+        <v>258638.7233545282</v>
       </c>
       <c r="J6" t="n">
-        <v>259227.8728488156</v>
+        <v>258638.723354528</v>
       </c>
       <c r="K6" t="n">
-        <v>259227.8728488155</v>
+        <v>258638.7233545281</v>
       </c>
       <c r="L6" t="n">
-        <v>259227.8728488155</v>
+        <v>258638.723354528</v>
       </c>
       <c r="M6" t="n">
-        <v>122684.9276223315</v>
+        <v>122095.7781280442</v>
       </c>
       <c r="N6" t="n">
-        <v>259227.8728488156</v>
+        <v>258638.7233545282</v>
       </c>
       <c r="O6" t="n">
-        <v>259227.8728488156</v>
+        <v>258638.7233545282</v>
       </c>
       <c r="P6" t="n">
-        <v>259227.8728488157</v>
+        <v>258638.7233545282</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470794</v>
       </c>
       <c r="F3" t="n">
         <v>504.9479613470796</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
+        <v>547.9163465533621</v>
+      </c>
+      <c r="G4" t="n">
         <v>547.9163465533624</v>
-      </c>
-      <c r="G4" t="n">
-        <v>547.9163465533622</v>
       </c>
       <c r="H4" t="n">
         <v>547.9163465533622</v>
       </c>
       <c r="I4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="J4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="K4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="L4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533624</v>
       </c>
       <c r="M4" t="n">
         <v>547.9163465533624</v>
       </c>
       <c r="N4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533625</v>
       </c>
       <c r="O4" t="n">
-        <v>547.9163465533624</v>
+        <v>547.9163465533625</v>
       </c>
       <c r="P4" t="n">
         <v>547.9163465533625</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>504.9479613470796</v>
+        <v>504.9479613470794</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>547.9163465533622</v>
+        <v>547.9163465533621</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>2.029941553154087</v>
       </c>
       <c r="H11" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123929</v>
       </c>
       <c r="I11" t="n">
-        <v>78.25932172797302</v>
+        <v>78.259321727973</v>
       </c>
       <c r="J11" t="n">
-        <v>172.2887518970119</v>
+        <v>172.2887518970118</v>
       </c>
       <c r="K11" t="n">
         <v>258.2161778420244</v>
       </c>
       <c r="L11" t="n">
-        <v>320.3400016493639</v>
+        <v>320.3400016493638</v>
       </c>
       <c r="M11" t="n">
-        <v>356.4399747452679</v>
+        <v>356.4399747452678</v>
       </c>
       <c r="N11" t="n">
-        <v>362.2075461831669</v>
+        <v>362.2075461831668</v>
       </c>
       <c r="O11" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639909</v>
       </c>
       <c r="P11" t="n">
-        <v>291.9081327704994</v>
+        <v>291.9081327704993</v>
       </c>
       <c r="Q11" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981685</v>
       </c>
       <c r="R11" t="n">
         <v>127.5133160883155</v>
       </c>
       <c r="S11" t="n">
-        <v>46.25729314249881</v>
+        <v>46.2572931424988</v>
       </c>
       <c r="T11" t="n">
-        <v>8.886069148932021</v>
+        <v>8.886069148932018</v>
       </c>
       <c r="U11" t="n">
         <v>0.1623953242523269</v>
@@ -31837,43 +31837,43 @@
         <v>10.48957934798367</v>
       </c>
       <c r="I12" t="n">
-        <v>37.39473109976014</v>
+        <v>37.39473109976013</v>
       </c>
       <c r="J12" t="n">
-        <v>102.6140003337495</v>
+        <v>102.6140003337494</v>
       </c>
       <c r="K12" t="n">
         <v>175.3836706878814</v>
       </c>
       <c r="L12" t="n">
-        <v>235.8249889291243</v>
+        <v>235.8249889291242</v>
       </c>
       <c r="M12" t="n">
-        <v>275.1966389341583</v>
+        <v>275.1966389341582</v>
       </c>
       <c r="N12" t="n">
         <v>282.4802750935893</v>
       </c>
       <c r="O12" t="n">
-        <v>258.4142647093871</v>
+        <v>258.4142647093869</v>
       </c>
       <c r="P12" t="n">
-        <v>207.4002296332939</v>
+        <v>207.4002296332938</v>
       </c>
       <c r="Q12" t="n">
         <v>138.6415610098623</v>
       </c>
       <c r="R12" t="n">
-        <v>67.43437113989869</v>
+        <v>67.43437113989867</v>
       </c>
       <c r="S12" t="n">
-        <v>20.17410015381963</v>
+        <v>20.17410015381962</v>
       </c>
       <c r="T12" t="n">
-        <v>4.377803551678924</v>
+        <v>4.377803551678923</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0714549001906245</v>
+        <v>0.07145490019062448</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9105618975111269</v>
+        <v>0.9105618975111267</v>
       </c>
       <c r="H13" t="n">
-        <v>8.095723052417117</v>
+        <v>8.095723052417114</v>
       </c>
       <c r="I13" t="n">
-        <v>27.38307960878917</v>
+        <v>27.38307960878916</v>
       </c>
       <c r="J13" t="n">
-        <v>64.37672615403667</v>
+        <v>64.37672615403665</v>
       </c>
       <c r="K13" t="n">
         <v>105.7907368199291</v>
       </c>
       <c r="L13" t="n">
-        <v>135.3757206536089</v>
+        <v>135.3757206536088</v>
       </c>
       <c r="M13" t="n">
         <v>142.7347163525851</v>
       </c>
       <c r="N13" t="n">
-        <v>139.3408038254983</v>
+        <v>139.3408038254982</v>
       </c>
       <c r="O13" t="n">
         <v>128.7037852954819</v>
@@ -31940,19 +31940,19 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.24714216340901</v>
+        <v>76.24714216340898</v>
       </c>
       <c r="R13" t="n">
-        <v>40.94217404627302</v>
+        <v>40.94217404627301</v>
       </c>
       <c r="S13" t="n">
         <v>15.86861052298936</v>
       </c>
       <c r="T13" t="n">
-        <v>3.890582653002087</v>
+        <v>3.890582653002086</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04966701259151608</v>
+        <v>0.04966701259151606</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.029941553154087</v>
+        <v>2.029941553154088</v>
       </c>
       <c r="H38" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123931</v>
       </c>
       <c r="I38" t="n">
         <v>78.25932172797305</v>
@@ -33903,19 +33903,19 @@
         <v>320.340001649364</v>
       </c>
       <c r="M38" t="n">
-        <v>356.4399747452679</v>
+        <v>356.439974745268</v>
       </c>
       <c r="N38" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831671</v>
       </c>
       <c r="O38" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639911</v>
       </c>
       <c r="P38" t="n">
         <v>291.9081327704995</v>
       </c>
       <c r="Q38" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981687</v>
       </c>
       <c r="R38" t="n">
         <v>127.5133160883156</v>
@@ -33924,7 +33924,7 @@
         <v>46.25729314249882</v>
       </c>
       <c r="T38" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932025</v>
       </c>
       <c r="U38" t="n">
         <v>0.162395324252327</v>
@@ -33970,13 +33970,13 @@
         <v>10.48957934798368</v>
       </c>
       <c r="I39" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976016</v>
       </c>
       <c r="J39" t="n">
         <v>102.6140003337495</v>
       </c>
       <c r="K39" t="n">
-        <v>175.3836706878814</v>
+        <v>175.3836706878815</v>
       </c>
       <c r="L39" t="n">
         <v>235.8249889291244</v>
@@ -33991,19 +33991,19 @@
         <v>258.4142647093871</v>
       </c>
       <c r="P39" t="n">
-        <v>207.4002296332939</v>
+        <v>207.400229633294</v>
       </c>
       <c r="Q39" t="n">
         <v>138.6415610098624</v>
       </c>
       <c r="R39" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989872</v>
       </c>
       <c r="S39" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T39" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678926</v>
       </c>
       <c r="U39" t="n">
         <v>0.07145490019062452</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111273</v>
       </c>
       <c r="H40" t="n">
         <v>8.095723052417119</v>
@@ -34052,7 +34052,7 @@
         <v>27.38307960878918</v>
       </c>
       <c r="J40" t="n">
-        <v>64.37672615403669</v>
+        <v>64.3767261540367</v>
       </c>
       <c r="K40" t="n">
         <v>105.7907368199291</v>
@@ -34073,7 +34073,7 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q40" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340904</v>
       </c>
       <c r="R40" t="n">
         <v>40.94217404627304</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.029941553154087</v>
+        <v>2.029941553154088</v>
       </c>
       <c r="H41" t="n">
-        <v>20.7891389312393</v>
+        <v>20.78913893123931</v>
       </c>
       <c r="I41" t="n">
         <v>78.25932172797305</v>
@@ -34140,19 +34140,19 @@
         <v>320.340001649364</v>
       </c>
       <c r="M41" t="n">
-        <v>356.4399747452679</v>
+        <v>356.439974745268</v>
       </c>
       <c r="N41" t="n">
-        <v>362.207546183167</v>
+        <v>362.2075461831671</v>
       </c>
       <c r="O41" t="n">
-        <v>342.022314863991</v>
+        <v>342.0223148639911</v>
       </c>
       <c r="P41" t="n">
         <v>291.9081327704995</v>
       </c>
       <c r="Q41" t="n">
-        <v>219.2108508981686</v>
+        <v>219.2108508981687</v>
       </c>
       <c r="R41" t="n">
         <v>127.5133160883156</v>
@@ -34161,7 +34161,7 @@
         <v>46.25729314249882</v>
       </c>
       <c r="T41" t="n">
-        <v>8.886069148932023</v>
+        <v>8.886069148932025</v>
       </c>
       <c r="U41" t="n">
         <v>0.162395324252327</v>
@@ -34207,13 +34207,13 @@
         <v>10.48957934798368</v>
       </c>
       <c r="I42" t="n">
-        <v>37.39473109976015</v>
+        <v>37.39473109976016</v>
       </c>
       <c r="J42" t="n">
         <v>102.6140003337495</v>
       </c>
       <c r="K42" t="n">
-        <v>175.3836706878814</v>
+        <v>175.3836706878815</v>
       </c>
       <c r="L42" t="n">
         <v>235.8249889291244</v>
@@ -34228,19 +34228,19 @@
         <v>258.4142647093871</v>
       </c>
       <c r="P42" t="n">
-        <v>207.4002296332939</v>
+        <v>207.400229633294</v>
       </c>
       <c r="Q42" t="n">
         <v>138.6415610098624</v>
       </c>
       <c r="R42" t="n">
-        <v>67.4343711398987</v>
+        <v>67.43437113989872</v>
       </c>
       <c r="S42" t="n">
         <v>20.17410015381963</v>
       </c>
       <c r="T42" t="n">
-        <v>4.377803551678925</v>
+        <v>4.377803551678926</v>
       </c>
       <c r="U42" t="n">
         <v>0.07145490019062452</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9105618975111271</v>
+        <v>0.9105618975111273</v>
       </c>
       <c r="H43" t="n">
         <v>8.095723052417119</v>
@@ -34289,7 +34289,7 @@
         <v>27.38307960878918</v>
       </c>
       <c r="J43" t="n">
-        <v>64.37672615403669</v>
+        <v>64.3767261540367</v>
       </c>
       <c r="K43" t="n">
         <v>105.7907368199291</v>
@@ -34310,7 +34310,7 @@
         <v>110.1283225862548</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.24714216340902</v>
+        <v>76.24714216340904</v>
       </c>
       <c r="R43" t="n">
         <v>40.94217404627304</v>
@@ -34377,7 +34377,7 @@
         <v>320.340001649364</v>
       </c>
       <c r="M44" t="n">
-        <v>356.439974745268</v>
+        <v>356.4399747452685</v>
       </c>
       <c r="N44" t="n">
         <v>362.2075461831671</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>43.71141918400951</v>
+        <v>43.7114191840095</v>
       </c>
       <c r="J11" t="n">
         <v>142.8687924114253</v>
       </c>
       <c r="K11" t="n">
-        <v>222.4515770472151</v>
+        <v>222.451577047215</v>
       </c>
       <c r="L11" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167408</v>
       </c>
       <c r="M11" t="n">
-        <v>319.008711845836</v>
+        <v>319.0087118458359</v>
       </c>
       <c r="N11" t="n">
-        <v>324.9279233487209</v>
+        <v>324.9279233487208</v>
       </c>
       <c r="O11" t="n">
-        <v>304.6313555079669</v>
+        <v>304.6313555079668</v>
       </c>
       <c r="P11" t="n">
-        <v>254.3327709602681</v>
+        <v>254.332770960268</v>
       </c>
       <c r="Q11" t="n">
         <v>183.0861762935705</v>
       </c>
       <c r="R11" t="n">
-        <v>92.48066619351908</v>
+        <v>92.48066619351903</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.91659267744888</v>
+        <v>44.91659267744886</v>
       </c>
       <c r="J12" t="n">
-        <v>82.00288600041613</v>
+        <v>178.5266804878761</v>
       </c>
       <c r="K12" t="n">
-        <v>152.9844368545481</v>
+        <v>152.984436854548</v>
       </c>
       <c r="L12" t="n">
         <v>213.3099022148947</v>
       </c>
       <c r="M12" t="n">
-        <v>455.1443602677805</v>
+        <v>252.0998584218302</v>
       </c>
       <c r="N12" t="n">
-        <v>261.1372468800477</v>
+        <v>261.1372468800476</v>
       </c>
       <c r="O12" t="n">
-        <v>235.2423749871648</v>
+        <v>235.2423749871647</v>
       </c>
       <c r="P12" t="n">
         <v>185.6293884284652</v>
@@ -35512,7 +35512,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R12" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.73997017013481</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K13" t="n">
-        <v>334.6064956137041</v>
+        <v>334.606495613704</v>
       </c>
       <c r="L13" t="n">
-        <v>493.647762365145</v>
+        <v>113.4569607579076</v>
       </c>
       <c r="M13" t="n">
-        <v>531.3080644704008</v>
+        <v>120.1592764610992</v>
       </c>
       <c r="N13" t="n">
-        <v>520.6453602659385</v>
+        <v>382.9407651323448</v>
       </c>
       <c r="O13" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932223</v>
       </c>
       <c r="P13" t="n">
-        <v>87.74752192826833</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025624</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.22234434976014</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J15" t="n">
-        <v>308.741636174055</v>
+        <v>178.5266804878755</v>
       </c>
       <c r="K15" t="n">
         <v>152.9844368545481</v>
@@ -35749,7 +35749,7 @@
         <v>115.8945227208838</v>
       </c>
       <c r="R15" t="n">
-        <v>43.76145174575454</v>
+        <v>150.2821591042452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>43.73997017013481</v>
       </c>
       <c r="K16" t="n">
-        <v>334.6064956137041</v>
+        <v>84.8260823672171</v>
       </c>
       <c r="L16" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M16" t="n">
-        <v>537.871882989202</v>
+        <v>399.5709784207223</v>
       </c>
       <c r="N16" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O16" t="n">
-        <v>106.2045977970574</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P16" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826833</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.2018601410075</v>
+        <v>51.62757939862406</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J18" t="n">
-        <v>82.00288600041613</v>
+        <v>285.0473878463662</v>
       </c>
       <c r="K18" t="n">
         <v>152.9844368545481</v>
@@ -35983,7 +35983,7 @@
         <v>185.6293884284652</v>
       </c>
       <c r="Q18" t="n">
-        <v>318.9390245668341</v>
+        <v>115.8945227208838</v>
       </c>
       <c r="R18" t="n">
         <v>43.76145174575454</v>
@@ -36044,25 +36044,25 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K19" t="n">
-        <v>334.6064956137041</v>
+        <v>218.7645562889144</v>
       </c>
       <c r="L19" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M19" t="n">
-        <v>537.871882989202</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N19" t="n">
         <v>118.5919028498979</v>
       </c>
       <c r="O19" t="n">
-        <v>107.070073844268</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P19" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.62757939862406</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>44.91659267744888</v>
       </c>
       <c r="J21" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K21" t="n">
         <v>152.9844368545481</v>
@@ -36214,7 +36214,7 @@
         <v>261.1372468800478</v>
       </c>
       <c r="O21" t="n">
-        <v>331.7661694746239</v>
+        <v>235.2423749871649</v>
       </c>
       <c r="P21" t="n">
         <v>185.6293884284653</v>
@@ -36281,16 +36281,16 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K22" t="n">
-        <v>334.6064956137041</v>
+        <v>334.145273971987</v>
       </c>
       <c r="L22" t="n">
         <v>113.4569607579077</v>
       </c>
       <c r="M22" t="n">
-        <v>135.3572039314444</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N22" t="n">
-        <v>520.6453602659385</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O22" t="n">
         <v>487.7220970932224</v>
@@ -36366,7 +36366,7 @@
         <v>282.027959216741</v>
       </c>
       <c r="M23" t="n">
-        <v>319.0087118458358</v>
+        <v>319.0087118458361</v>
       </c>
       <c r="N23" t="n">
         <v>324.927923348721</v>
@@ -36518,22 +36518,22 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K25" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L25" t="n">
-        <v>341.6107158084168</v>
+        <v>113.4569607579077</v>
       </c>
       <c r="M25" t="n">
         <v>537.8718829892022</v>
       </c>
       <c r="N25" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O25" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P25" t="n">
-        <v>403.6628800831245</v>
+        <v>98.02609166791544</v>
       </c>
       <c r="Q25" t="n">
         <v>204.5301020025625</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J27" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K27" t="n">
         <v>152.9844368545481</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0486523885334</v>
+        <v>213.3099022148948</v>
       </c>
       <c r="M27" t="n">
         <v>252.0998584218304</v>
@@ -36697,7 +36697,7 @@
         <v>115.8945227208839</v>
       </c>
       <c r="R27" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K28" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4569607579077</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M28" t="n">
-        <v>363.9721806236706</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N28" t="n">
         <v>520.6453602659385</v>
       </c>
       <c r="O28" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P28" t="n">
-        <v>403.6628800831245</v>
+        <v>135.5478965887812</v>
       </c>
       <c r="Q28" t="n">
         <v>204.5301020025625</v>
@@ -36834,7 +36834,7 @@
         <v>142.8687924114254</v>
       </c>
       <c r="K29" t="n">
-        <v>222.4515770472149</v>
+        <v>222.4515770472152</v>
       </c>
       <c r="L29" t="n">
         <v>282.027959216741</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K31" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721713</v>
       </c>
       <c r="L31" t="n">
-        <v>444.5702463831089</v>
+        <v>493.647762365145</v>
       </c>
       <c r="M31" t="n">
         <v>120.1592764610993</v>
@@ -37007,7 +37007,7 @@
         <v>487.7220970932224</v>
       </c>
       <c r="P31" t="n">
-        <v>87.74752192826834</v>
+        <v>367.1592238878923</v>
       </c>
       <c r="Q31" t="n">
         <v>51.62757939862408</v>
@@ -37068,7 +37068,7 @@
         <v>43.71141918400954</v>
       </c>
       <c r="J32" t="n">
-        <v>142.8687924114251</v>
+        <v>142.8687924114256</v>
       </c>
       <c r="K32" t="n">
         <v>222.4515770472152</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013482</v>
       </c>
       <c r="K34" t="n">
         <v>84.82608236721713</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4569607579077</v>
+        <v>441.4849570578505</v>
       </c>
       <c r="M34" t="n">
         <v>537.8718829892022</v>
       </c>
       <c r="N34" t="n">
-        <v>215.0085718507291</v>
+        <v>118.5919028498979</v>
       </c>
       <c r="O34" t="n">
         <v>487.7220970932224</v>
@@ -37247,7 +37247,7 @@
         <v>403.6628800831245</v>
       </c>
       <c r="Q34" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862408</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744888</v>
       </c>
       <c r="J36" t="n">
-        <v>82.00288600041615</v>
+        <v>178.5266804878753</v>
       </c>
       <c r="K36" t="n">
         <v>152.9844368545481</v>
@@ -37405,10 +37405,10 @@
         <v>185.6293884284653</v>
       </c>
       <c r="Q36" t="n">
-        <v>342.6332728945224</v>
+        <v>115.8945227208839</v>
       </c>
       <c r="R36" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>122.4487748653074</v>
       </c>
       <c r="K37" t="n">
-        <v>334.6064956137041</v>
+        <v>196.901900480111</v>
       </c>
       <c r="L37" t="n">
         <v>113.4569607579077</v>
       </c>
       <c r="M37" t="n">
-        <v>537.8718829892022</v>
+        <v>120.1592764610993</v>
       </c>
       <c r="N37" t="n">
-        <v>281.1435167590989</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O37" t="n">
         <v>487.7220970932224</v>
       </c>
       <c r="P37" t="n">
-        <v>87.74752192826834</v>
+        <v>403.6628800831245</v>
       </c>
       <c r="Q37" t="n">
         <v>204.5301020025625</v>
@@ -37542,22 +37542,22 @@
         <v>43.71141918400954</v>
       </c>
       <c r="J38" t="n">
-        <v>142.8687924114254</v>
+        <v>142.8687924114258</v>
       </c>
       <c r="K38" t="n">
         <v>222.4515770472152</v>
       </c>
       <c r="L38" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167411</v>
       </c>
       <c r="M38" t="n">
-        <v>319.0087118458361</v>
+        <v>319.0087118458362</v>
       </c>
       <c r="N38" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487211</v>
       </c>
       <c r="O38" t="n">
-        <v>304.6313555079669</v>
+        <v>304.631355507967</v>
       </c>
       <c r="P38" t="n">
         <v>254.3327709602682</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.22234434976015</v>
+        <v>44.91659267744889</v>
       </c>
       <c r="J39" t="n">
-        <v>308.7416361740547</v>
+        <v>178.5266804878751</v>
       </c>
       <c r="K39" t="n">
         <v>152.9844368545481</v>
@@ -37630,7 +37630,7 @@
         <v>213.3099022148948</v>
       </c>
       <c r="M39" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218305</v>
       </c>
       <c r="N39" t="n">
         <v>261.1372468800478</v>
@@ -37645,7 +37645,7 @@
         <v>115.8945227208839</v>
       </c>
       <c r="R39" t="n">
-        <v>43.76145174575456</v>
+        <v>150.2821591042453</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.73997017013482</v>
+        <v>122.4487748653074</v>
       </c>
       <c r="K40" t="n">
-        <v>297.473360984087</v>
+        <v>249.3338723997307</v>
       </c>
       <c r="L40" t="n">
         <v>493.647762365145</v>
       </c>
       <c r="M40" t="n">
-        <v>120.1592764610993</v>
+        <v>537.8718829892022</v>
       </c>
       <c r="N40" t="n">
-        <v>118.5919028498979</v>
+        <v>520.6453602659385</v>
       </c>
       <c r="O40" t="n">
-        <v>487.7220970932224</v>
+        <v>106.2045977970575</v>
       </c>
       <c r="P40" t="n">
-        <v>403.6628800831245</v>
+        <v>87.74752192826836</v>
       </c>
       <c r="Q40" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862409</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>222.4515770472152</v>
       </c>
       <c r="L41" t="n">
-        <v>282.027959216741</v>
+        <v>282.0279592167411</v>
       </c>
       <c r="M41" t="n">
-        <v>319.0087118458361</v>
+        <v>319.0087118458362</v>
       </c>
       <c r="N41" t="n">
-        <v>324.927923348721</v>
+        <v>324.9279233487211</v>
       </c>
       <c r="O41" t="n">
-        <v>304.6313555079669</v>
+        <v>304.631355507967</v>
       </c>
       <c r="P41" t="n">
         <v>254.3327709602682</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.22234434976015</v>
+        <v>21.22234434976016</v>
       </c>
       <c r="J42" t="n">
-        <v>308.7416361740547</v>
+        <v>308.7416361740546</v>
       </c>
       <c r="K42" t="n">
         <v>152.9844368545481</v>
@@ -37867,7 +37867,7 @@
         <v>213.3099022148948</v>
       </c>
       <c r="M42" t="n">
-        <v>252.0998584218304</v>
+        <v>252.0998584218305</v>
       </c>
       <c r="N42" t="n">
         <v>261.1372468800478</v>
@@ -37882,7 +37882,7 @@
         <v>115.8945227208839</v>
       </c>
       <c r="R42" t="n">
-        <v>43.76145174575456</v>
+        <v>43.76145174575457</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.73997017013482</v>
+        <v>43.73997017013484</v>
       </c>
       <c r="K43" t="n">
-        <v>84.82608236721713</v>
+        <v>334.6064956137041</v>
       </c>
       <c r="L43" t="n">
-        <v>420.9489989379746</v>
+        <v>113.4569607579077</v>
       </c>
       <c r="M43" t="n">
-        <v>537.8718829892022</v>
+        <v>442.6809853188441</v>
       </c>
       <c r="N43" t="n">
         <v>520.6453602659385</v>
@@ -37958,7 +37958,7 @@
         <v>403.6628800831245</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.62757939862408</v>
+        <v>204.5301020025625</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>282.0279592167411</v>
       </c>
       <c r="M44" t="n">
-        <v>319.0087118458362</v>
+        <v>319.0087118458367</v>
       </c>
       <c r="N44" t="n">
         <v>324.9279233487211</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>122.4487748653074</v>
+        <v>43.73997017013484</v>
       </c>
       <c r="K46" t="n">
-        <v>334.6064956137041</v>
+        <v>84.82608236721714</v>
       </c>
       <c r="L46" t="n">
-        <v>357.26986492048</v>
+        <v>457.1441061699132</v>
       </c>
       <c r="M46" t="n">
         <v>120.1592764610993</v>
@@ -38189,13 +38189,13 @@
         <v>520.6453602659385</v>
       </c>
       <c r="O46" t="n">
-        <v>106.2045977970575</v>
+        <v>487.7220970932224</v>
       </c>
       <c r="P46" t="n">
         <v>403.6628800831245</v>
       </c>
       <c r="Q46" t="n">
-        <v>204.5301020025625</v>
+        <v>51.62757939862409</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
